--- a/data/obtn-by-county.xlsx
+++ b/data/obtn-by-county.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidkeyes/Google Drive/Work/TFFF/OBTN/OBTN 2019/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidkeyes/Google Drive/Work/TFFF/OBTN/obtn-2019/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E62D722-A528-C545-90A5-7B124609B73B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CA378D-CCC6-9F44-9D11-A18E90A90B5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35160" yWindow="1180" windowWidth="26800" windowHeight="16040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attribute List" sheetId="15" r:id="rId1"/>
@@ -19,15 +19,18 @@
     <sheet name="Net Migration" sheetId="8" r:id="rId4"/>
     <sheet name="Total Land Area" sheetId="9" r:id="rId5"/>
     <sheet name="Public Lands" sheetId="10" r:id="rId6"/>
-    <sheet name="Largest Community" sheetId="3" r:id="rId7"/>
-    <sheet name="Notable Features" sheetId="4" r:id="rId8"/>
-    <sheet name="Tribes" sheetId="5" r:id="rId9"/>
-    <sheet name="Median Income" sheetId="11" r:id="rId10"/>
-    <sheet name="Race Ethnicity" sheetId="12" r:id="rId11"/>
-    <sheet name="Gender Age" sheetId="13" r:id="rId12"/>
-    <sheet name="Employment Industries" sheetId="14" r:id="rId13"/>
+    <sheet name="Employment Industries" sheetId="14" r:id="rId7"/>
+    <sheet name="Largest Community" sheetId="3" r:id="rId8"/>
+    <sheet name="Notable Features" sheetId="4" r:id="rId9"/>
+    <sheet name="Tribes" sheetId="5" r:id="rId10"/>
+    <sheet name="Median Income" sheetId="11" r:id="rId11"/>
+    <sheet name="Race Ethnicity" sheetId="12" r:id="rId12"/>
+    <sheet name="Gender Age" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Largest Community'!$A$1:$C$1</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -949,10 +952,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -983,6 +988,18 @@
       <name val="ArialMT"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1001,10 +1018,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1014,8 +1032,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1330,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1650,6 +1675,377 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
@@ -1983,7 +2379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
@@ -3159,12 +3555,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AK40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:AK40"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -7687,563 +8083,6 @@
       </c>
       <c r="AK40">
         <v>1.3226663407142184E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:D40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:D40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
-  <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="14">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C4" t="s">
-        <v>280</v>
-      </c>
-      <c r="D4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C6" t="s">
-        <v>280</v>
-      </c>
-      <c r="D6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>279</v>
-      </c>
-      <c r="C9" t="s">
-        <v>287</v>
-      </c>
-      <c r="D9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>287</v>
-      </c>
-      <c r="C11" t="s">
-        <v>279</v>
-      </c>
-      <c r="D11" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>290</v>
-      </c>
-      <c r="C12" t="s">
-        <v>291</v>
-      </c>
-      <c r="D12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>292</v>
-      </c>
-      <c r="C13" t="s">
-        <v>280</v>
-      </c>
-      <c r="D13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>280</v>
-      </c>
-      <c r="C14" t="s">
-        <v>293</v>
-      </c>
-      <c r="D14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>294</v>
-      </c>
-      <c r="C15" t="s">
-        <v>279</v>
-      </c>
-      <c r="D15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>279</v>
-      </c>
-      <c r="C16" t="s">
-        <v>289</v>
-      </c>
-      <c r="D16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>280</v>
-      </c>
-      <c r="C17" t="s">
-        <v>279</v>
-      </c>
-      <c r="D17" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>279</v>
-      </c>
-      <c r="C18" t="s">
-        <v>289</v>
-      </c>
-      <c r="D18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>280</v>
-      </c>
-      <c r="C19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>293</v>
-      </c>
-      <c r="C20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D20" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>280</v>
-      </c>
-      <c r="C21" t="s">
-        <v>279</v>
-      </c>
-      <c r="D21" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>279</v>
-      </c>
-      <c r="C22" t="s">
-        <v>284</v>
-      </c>
-      <c r="D22" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>280</v>
-      </c>
-      <c r="C23" t="s">
-        <v>279</v>
-      </c>
-      <c r="D23" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>280</v>
-      </c>
-      <c r="C24" t="s">
-        <v>279</v>
-      </c>
-      <c r="D24" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>280</v>
-      </c>
-      <c r="C25" t="s">
-        <v>279</v>
-      </c>
-      <c r="D25" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>297</v>
-      </c>
-      <c r="C26" t="s">
-        <v>294</v>
-      </c>
-      <c r="D26" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>280</v>
-      </c>
-      <c r="C27" t="s">
-        <v>279</v>
-      </c>
-      <c r="D27" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>280</v>
-      </c>
-      <c r="C28" t="s">
-        <v>279</v>
-      </c>
-      <c r="D28" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>283</v>
-      </c>
-      <c r="C29" t="s">
-        <v>300</v>
-      </c>
-      <c r="D29" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>279</v>
-      </c>
-      <c r="C30" t="s">
-        <v>297</v>
-      </c>
-      <c r="D30" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>279</v>
-      </c>
-      <c r="C31" t="s">
-        <v>280</v>
-      </c>
-      <c r="D31" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>280</v>
-      </c>
-      <c r="C32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D32" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>289</v>
-      </c>
-      <c r="C33" t="s">
-        <v>280</v>
-      </c>
-      <c r="D33" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>294</v>
-      </c>
-      <c r="C34" t="s">
-        <v>279</v>
-      </c>
-      <c r="D34" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>301</v>
-      </c>
-      <c r="C35" t="s">
-        <v>281</v>
-      </c>
-      <c r="D35" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>280</v>
-      </c>
-      <c r="C36" t="s">
-        <v>291</v>
-      </c>
-      <c r="D36" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>280</v>
-      </c>
-      <c r="C37" t="s">
-        <v>279</v>
-      </c>
-      <c r="D37" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15">
-      <c r="A39" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15">
-      <c r="A40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" t="s">
-        <v>279</v>
-      </c>
-      <c r="C40" t="s">
-        <v>280</v>
-      </c>
-      <c r="D40" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -8255,8 +8094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -8591,19 +8430,19 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -8611,7 +8450,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>41.006570000000004</v>
       </c>
     </row>
@@ -8619,7 +8458,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>18.763949100000001</v>
       </c>
     </row>
@@ -8627,7 +8466,7 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>18.078576099999999</v>
       </c>
     </row>
@@ -8635,7 +8474,7 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <v>38.972434499999999</v>
       </c>
     </row>
@@ -8643,7 +8482,7 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>43.612084899999999</v>
       </c>
     </row>
@@ -8651,7 +8490,7 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>38.353187499999997</v>
       </c>
     </row>
@@ -8659,7 +8498,7 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>48.016970200000003</v>
       </c>
     </row>
@@ -8667,7 +8506,7 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>38.731890499999999</v>
       </c>
     </row>
@@ -8675,7 +8514,7 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="8">
         <v>27.643549499999999</v>
       </c>
     </row>
@@ -8683,7 +8522,7 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>41.177891099999997</v>
       </c>
     </row>
@@ -8691,7 +8530,7 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>100</v>
       </c>
     </row>
@@ -8699,7 +8538,7 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
         <v>100</v>
       </c>
     </row>
@@ -8707,7 +8546,7 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
         <v>44.341147900000003</v>
       </c>
     </row>
@@ -8715,7 +8554,7 @@
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="8">
         <v>52.1748859</v>
       </c>
     </row>
@@ -8723,7 +8562,7 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="8">
         <v>20.052557499999999</v>
       </c>
     </row>
@@ -8731,7 +8570,7 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="8">
         <v>63.121547</v>
       </c>
     </row>
@@ -8739,7 +8578,7 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="8">
         <v>44.963911400000001</v>
       </c>
     </row>
@@ -8747,7 +8586,7 @@
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="8">
         <v>37.5805966</v>
       </c>
     </row>
@@ -8755,7 +8594,7 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="8">
         <v>63.3312223</v>
       </c>
     </row>
@@ -8763,7 +8602,7 @@
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="8">
         <v>17.522994499999999</v>
       </c>
     </row>
@@ -8771,7 +8610,7 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="8">
         <v>37.589607700000002</v>
       </c>
     </row>
@@ -8779,7 +8618,7 @@
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="8">
         <v>31.638268</v>
       </c>
     </row>
@@ -8787,7 +8626,7 @@
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="8">
         <v>48.417590099999998</v>
       </c>
     </row>
@@ -8795,7 +8634,7 @@
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="8">
         <v>13.093693999999999</v>
       </c>
     </row>
@@ -8803,7 +8642,7 @@
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="8">
         <v>45.869506800000003</v>
       </c>
     </row>
@@ -8811,7 +8650,7 @@
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="8">
         <v>1.3422472000000001</v>
       </c>
     </row>
@@ -8819,7 +8658,7 @@
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="8">
         <v>19.926262900000001</v>
       </c>
     </row>
@@ -8827,7 +8666,7 @@
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="8">
         <v>100</v>
       </c>
     </row>
@@ -8835,7 +8674,7 @@
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="8">
         <v>69.603960400000005</v>
       </c>
     </row>
@@ -8843,7 +8682,7 @@
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="8">
         <v>29.066136100000001</v>
       </c>
     </row>
@@ -8851,7 +8690,7 @@
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="8">
         <v>42.096473500000002</v>
       </c>
     </row>
@@ -8859,7 +8698,7 @@
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="8">
         <v>100</v>
       </c>
     </row>
@@ -8867,7 +8706,7 @@
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="8">
         <v>33.066275300000001</v>
       </c>
     </row>
@@ -8875,7 +8714,7 @@
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="8">
         <v>5.5900398300000003</v>
       </c>
     </row>
@@ -8883,7 +8722,7 @@
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="8">
         <v>100</v>
       </c>
     </row>
@@ -8891,7 +8730,7 @@
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="8">
         <v>22.603409500000001</v>
       </c>
     </row>
@@ -8909,7 +8748,7 @@
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="8">
         <v>18.9683624</v>
       </c>
     </row>
@@ -8923,19 +8762,19 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -8943,7 +8782,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>55.118388160155668</v>
       </c>
     </row>
@@ -8951,7 +8790,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>64.630573687861599</v>
       </c>
     </row>
@@ -8959,7 +8798,7 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>78.83587250157295</v>
       </c>
     </row>
@@ -8967,7 +8806,7 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <v>41.760947638593677</v>
       </c>
     </row>
@@ -8975,7 +8814,7 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>29.156543857893798</v>
       </c>
     </row>
@@ -8983,7 +8822,7 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>33.204567051663787</v>
       </c>
     </row>
@@ -8991,7 +8830,7 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>66.079868845173692</v>
       </c>
     </row>
@@ -8999,7 +8838,7 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>82.000123060123997</v>
       </c>
     </row>
@@ -9007,7 +8846,7 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="8">
         <v>132.28773795351378</v>
       </c>
     </row>
@@ -9015,7 +8854,7 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>53.854650182088989</v>
       </c>
     </row>
@@ -9023,7 +8862,7 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>67.473359546817917</v>
       </c>
     </row>
@@ -9031,7 +8870,7 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
         <v>15.281674919288163</v>
       </c>
     </row>
@@ -9039,7 +8878,7 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
         <v>-3.6748260573697329</v>
       </c>
     </row>
@@ -9047,7 +8886,7 @@
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="8">
         <v>86.292280378517276</v>
       </c>
     </row>
@@ -9055,7 +8894,7 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="8">
         <v>63.708434447954318</v>
       </c>
     </row>
@@ -9063,7 +8902,7 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="8">
         <v>38.304837154165718</v>
       </c>
     </row>
@@ -9071,7 +8910,7 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="8">
         <v>65.298760662124479</v>
       </c>
     </row>
@@ -9079,7 +8918,7 @@
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="8">
         <v>13.357336288539335</v>
       </c>
     </row>
@@ -9087,7 +8926,7 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="8">
         <v>40.022593750882379</v>
       </c>
     </row>
@@ -9095,7 +8934,7 @@
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="8">
         <v>49.013614995536294</v>
       </c>
     </row>
@@ -9103,7 +8942,7 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="8">
         <v>62.712987393084866</v>
       </c>
     </row>
@@ -9111,7 +8950,7 @@
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="8">
         <v>45.746646239398864</v>
       </c>
     </row>
@@ -9119,7 +8958,7 @@
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="8">
         <v>-12.619459444726733</v>
       </c>
     </row>
@@ -9127,7 +8966,7 @@
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="8">
         <v>34.583116576317082</v>
       </c>
     </row>
@@ -9135,7 +8974,7 @@
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="8">
         <v>9.0211146238648166</v>
       </c>
     </row>
@@ -9143,7 +8982,7 @@
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="8">
         <v>52.381539994873471</v>
       </c>
     </row>
@@ -9151,7 +8990,7 @@
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="8">
         <v>51.359888599799348</v>
       </c>
     </row>
@@ -9159,7 +8998,7 @@
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="8">
         <v>22.6377156345103</v>
       </c>
     </row>
@@ -9167,7 +9006,7 @@
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="8">
         <v>48.056906881235385</v>
       </c>
     </row>
@@ -9175,7 +9014,7 @@
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="8">
         <v>19.965808090816672</v>
       </c>
     </row>
@@ -9183,7 +9022,7 @@
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="8">
         <v>32.330104643698668</v>
       </c>
     </row>
@@ -9191,7 +9030,7 @@
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="8">
         <v>52.667043899208622</v>
       </c>
     </row>
@@ -9199,7 +9038,7 @@
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="8">
         <v>74.027086609576756</v>
       </c>
     </row>
@@ -9207,7 +9046,7 @@
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="8">
         <v>66.944422001324938</v>
       </c>
     </row>
@@ -9215,7 +9054,7 @@
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="8">
         <v>71.323095807693434</v>
       </c>
     </row>
@@ -9223,7 +9062,7 @@
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="8">
         <v>51.867193465275619</v>
       </c>
     </row>
@@ -9231,7 +9070,7 @@
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="8">
         <v>40.325045991392315</v>
       </c>
     </row>
@@ -9239,7 +9078,7 @@
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="8">
         <v>60.712019966516756</v>
       </c>
     </row>
@@ -9247,7 +9086,7 @@
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="8">
         <v>57.306074854863951</v>
       </c>
     </row>
@@ -9261,19 +9100,19 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B37"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9281,7 +9120,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>3088.37</v>
       </c>
     </row>
@@ -9289,7 +9128,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>678.61</v>
       </c>
     </row>
@@ -9297,7 +9136,7 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>1882.61</v>
       </c>
     </row>
@@ -9305,7 +9144,7 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <v>1084.3800000000001</v>
       </c>
     </row>
@@ -9313,7 +9152,7 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>688.33</v>
       </c>
     </row>
@@ -9321,7 +9160,7 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>1806.36</v>
       </c>
     </row>
@@ -9329,7 +9168,7 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>2987.27</v>
       </c>
     </row>
@@ -9337,7 +9176,7 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>1988.34</v>
       </c>
     </row>
@@ -9345,7 +9184,7 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="8">
         <v>3054.77</v>
       </c>
     </row>
@@ -9353,7 +9192,7 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>5133.7700000000004</v>
       </c>
     </row>
@@ -9361,7 +9200,7 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>1222.8399999999999</v>
       </c>
     </row>
@@ -9369,7 +9208,7 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
         <v>4529.2700000000004</v>
       </c>
     </row>
@@ -9377,7 +9216,7 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
         <v>10226.41</v>
       </c>
     </row>
@@ -9385,7 +9224,7 @@
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="8">
         <v>533.19000000000005</v>
       </c>
     </row>
@@ -9393,7 +9232,7 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="8">
         <v>2801.65</v>
       </c>
     </row>
@@ -9401,7 +9240,7 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="8">
         <v>1790.91</v>
       </c>
     </row>
@@ -9409,7 +9248,7 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="8">
         <v>1641.85</v>
       </c>
     </row>
@@ -9417,7 +9256,7 @@
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="8">
         <v>6135.55</v>
       </c>
     </row>
@@ -9425,7 +9264,7 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="8">
         <v>8358.26</v>
       </c>
     </row>
@@ -9433,7 +9272,7 @@
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="8">
         <v>4721.87</v>
       </c>
     </row>
@@ -9441,7 +9280,7 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="8">
         <v>1193.78</v>
       </c>
     </row>
@@ -9449,7 +9288,7 @@
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="8">
         <v>2308.96</v>
       </c>
     </row>
@@ -9457,7 +9296,7 @@
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="8">
         <v>9929.7000000000007</v>
       </c>
     </row>
@@ -9465,7 +9304,7 @@
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="8">
         <v>1192.5</v>
       </c>
     </row>
@@ -9473,7 +9312,7 @@
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="8">
         <v>2048.5100000000002</v>
       </c>
     </row>
@@ -9481,7 +9320,7 @@
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="8">
         <v>465.6</v>
       </c>
     </row>
@@ -9489,7 +9328,7 @@
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="8">
         <v>743.91</v>
       </c>
     </row>
@@ -9497,7 +9336,7 @@
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="8">
         <v>831.19</v>
       </c>
     </row>
@@ -9505,7 +9344,7 @@
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="8">
         <v>1332.76</v>
       </c>
     </row>
@@ -9513,7 +9352,7 @@
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="8">
         <v>3231.41</v>
       </c>
     </row>
@@ -9521,7 +9360,7 @@
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="8">
         <v>2038.53</v>
       </c>
     </row>
@@ -9529,7 +9368,7 @@
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="8">
         <v>3151.67</v>
       </c>
     </row>
@@ -9537,7 +9376,7 @@
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="8">
         <v>2395.4</v>
       </c>
     </row>
@@ -9545,7 +9384,7 @@
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="8">
         <v>726.42</v>
       </c>
     </row>
@@ -9553,7 +9392,7 @@
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="8">
         <v>1715.23</v>
       </c>
     </row>
@@ -9561,7 +9400,7 @@
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="8">
         <v>718.34</v>
       </c>
     </row>
@@ -9569,7 +9408,7 @@
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="8">
         <v>76753.100000000006</v>
       </c>
     </row>
@@ -9577,7 +9416,7 @@
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="8">
         <v>21625.419999999995</v>
       </c>
     </row>
@@ -9585,7 +9424,7 @@
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="8">
         <v>98378.54</v>
       </c>
     </row>
@@ -9599,19 +9438,19 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9619,7 +9458,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="10">
         <v>51.696236621383498</v>
       </c>
     </row>
@@ -9627,7 +9466,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="10">
         <v>26.408699645227667</v>
       </c>
     </row>
@@ -9635,7 +9474,7 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="10">
         <v>54.472808260451757</v>
       </c>
     </row>
@@ -9643,7 +9482,7 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="10">
         <v>24.43192936287528</v>
       </c>
     </row>
@@ -9651,7 +9490,7 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="10">
         <v>7.9843184198227393</v>
       </c>
     </row>
@@ -9659,7 +9498,7 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="10">
         <v>28.812783573267502</v>
       </c>
     </row>
@@ -9667,7 +9506,7 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="10">
         <v>50.457461810547166</v>
       </c>
     </row>
@@ -9675,7 +9514,7 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="10">
         <v>54.908413763226235</v>
       </c>
     </row>
@@ -9683,7 +9522,7 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="10">
         <v>77.931951939791162</v>
       </c>
     </row>
@@ -9691,7 +9530,7 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="10">
         <v>52.117329095275544</v>
       </c>
     </row>
@@ -9699,7 +9538,7 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="10">
         <v>8.3794518131237332</v>
       </c>
     </row>
@@ -9707,7 +9546,7 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="10">
         <v>61.711269722404026</v>
       </c>
     </row>
@@ -9715,7 +9554,7 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="10">
         <v>74.855327985709081</v>
       </c>
     </row>
@@ -9723,7 +9562,7 @@
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="10">
         <v>73.021768305099798</v>
       </c>
     </row>
@@ -9731,7 +9570,7 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="10">
         <v>52.224752274831673</v>
       </c>
     </row>
@@ -9739,7 +9578,7 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="10">
         <v>50.842137143508282</v>
       </c>
     </row>
@@ -9747,7 +9586,7 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="10">
         <v>68.051521094961927</v>
       </c>
     </row>
@@ -9755,7 +9594,7 @@
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="10">
         <v>60.22700257715784</v>
       </c>
     </row>
@@ -9763,7 +9602,7 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="10">
         <v>75.273168833405265</v>
       </c>
     </row>
@@ -9771,7 +9610,7 @@
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="10">
         <v>58.536648503962972</v>
       </c>
     </row>
@@ -9779,7 +9618,7 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="10">
         <v>29.182915202917687</v>
       </c>
     </row>
@@ -9787,7 +9626,7 @@
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="10">
         <v>39.64366181764408</v>
       </c>
     </row>
@@ -9795,7 +9634,7 @@
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="10">
         <v>78.356340827613352</v>
       </c>
     </row>
@@ -9803,7 +9642,7 @@
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="10">
         <v>34.598083006596816</v>
       </c>
     </row>
@@ -9811,7 +9650,7 @@
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="10">
         <v>16.719590940123773</v>
       </c>
     </row>
@@ -9819,7 +9658,7 @@
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="10">
         <v>35.973572813487856</v>
       </c>
     </row>
@@ -9827,7 +9666,7 @@
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="10">
         <v>11.87493612650422</v>
       </c>
     </row>
@@ -9835,7 +9674,7 @@
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="10">
         <v>12.257886589740572</v>
       </c>
     </row>
@@ -9843,7 +9682,7 @@
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="10">
         <v>77.41882466940217</v>
       </c>
     </row>
@@ -9851,7 +9690,7 @@
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="10">
         <v>26.690737528799652</v>
       </c>
     </row>
@@ -9859,7 +9698,7 @@
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="10">
         <v>48.69990578993027</v>
       </c>
     </row>
@@ -9867,7 +9706,7 @@
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="10">
         <v>58.808076937948485</v>
       </c>
     </row>
@@ -9875,7 +9714,7 @@
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="10">
         <v>43.856528208802288</v>
       </c>
     </row>
@@ -9883,7 +9722,7 @@
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="10">
         <v>14.791414976011685</v>
       </c>
     </row>
@@ -9891,7 +9730,7 @@
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="10">
         <v>29.013559824563153</v>
       </c>
     </row>
@@ -9899,7 +9738,7 @@
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="10">
         <v>16.508132941308844</v>
       </c>
     </row>
@@ -9907,7 +9746,7 @@
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="10">
         <v>57.792891122031435</v>
       </c>
     </row>
@@ -9915,7 +9754,7 @@
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="10">
         <v>49.916295823990417</v>
       </c>
     </row>
@@ -9923,7 +9762,7 @@
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="10">
         <v>56.061458257221844</v>
       </c>
     </row>
@@ -9933,11 +9772,575 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <cols>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="14">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" t="s">
+        <v>279</v>
+      </c>
+      <c r="D15" t="s">
+        <v>283</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="16">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" t="s">
+        <v>280</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C23" t="s">
+        <v>279</v>
+      </c>
+      <c r="D23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C24" t="s">
+        <v>279</v>
+      </c>
+      <c r="D24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>280</v>
+      </c>
+      <c r="C25" t="s">
+        <v>279</v>
+      </c>
+      <c r="D25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>297</v>
+      </c>
+      <c r="C26" t="s">
+        <v>294</v>
+      </c>
+      <c r="D26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>280</v>
+      </c>
+      <c r="C27" t="s">
+        <v>279</v>
+      </c>
+      <c r="D27" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>280</v>
+      </c>
+      <c r="C28" t="s">
+        <v>279</v>
+      </c>
+      <c r="D28" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" t="s">
+        <v>300</v>
+      </c>
+      <c r="D29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" t="s">
+        <v>297</v>
+      </c>
+      <c r="D30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>279</v>
+      </c>
+      <c r="C31" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>280</v>
+      </c>
+      <c r="C32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>289</v>
+      </c>
+      <c r="C33" t="s">
+        <v>280</v>
+      </c>
+      <c r="D33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>294</v>
+      </c>
+      <c r="C34" t="s">
+        <v>279</v>
+      </c>
+      <c r="D34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>301</v>
+      </c>
+      <c r="C35" t="s">
+        <v>281</v>
+      </c>
+      <c r="D35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>280</v>
+      </c>
+      <c r="C36" t="s">
+        <v>291</v>
+      </c>
+      <c r="D36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>280</v>
+      </c>
+      <c r="C37" t="s">
+        <v>279</v>
+      </c>
+      <c r="D37" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15">
+      <c r="A38" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15">
+      <c r="A39" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15">
+      <c r="A40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>279</v>
+      </c>
+      <c r="C40" t="s">
+        <v>280</v>
+      </c>
+      <c r="D40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -9959,222 +10362,222 @@
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2">
-        <v>9741</v>
+        <v>251</v>
+      </c>
+      <c r="C2" s="12">
+        <v>630331</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C3">
-        <v>56224</v>
+        <v>251</v>
+      </c>
+      <c r="C3" s="12">
+        <v>630331</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>251</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="12">
         <v>630331</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C5">
-        <v>9632</v>
+        <v>271</v>
+      </c>
+      <c r="C5" s="12">
+        <v>163654</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6">
-        <v>13254</v>
+        <v>271</v>
+      </c>
+      <c r="C6" s="12">
+        <v>163654</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7">
-        <v>16070</v>
+        <v>267</v>
+      </c>
+      <c r="C7" s="12">
+        <v>163135</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8">
-        <v>9515</v>
+        <v>257</v>
+      </c>
+      <c r="C8" s="12">
+        <v>87167</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C9">
-        <v>6366</v>
+        <v>262</v>
+      </c>
+      <c r="C9" s="12">
+        <v>79246</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C10">
-        <v>87167</v>
+        <v>250</v>
+      </c>
+      <c r="C10" s="12">
+        <v>56224</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11">
-        <v>22013</v>
+        <v>269</v>
+      </c>
+      <c r="C11" s="12">
+        <v>52007</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C12">
-        <v>595</v>
+        <v>264</v>
+      </c>
+      <c r="C12" s="12">
+        <v>36687</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>260</v>
-      </c>
-      <c r="C13">
-        <v>2071</v>
+        <v>278</v>
+      </c>
+      <c r="C13" s="12">
+        <v>33211</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
-      </c>
-      <c r="C14">
-        <v>2736</v>
+        <v>258</v>
+      </c>
+      <c r="C14" s="12">
+        <v>22013</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>7526</v>
+        <v>265</v>
+      </c>
+      <c r="C15" s="12">
+        <v>21113</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>262</v>
-      </c>
-      <c r="C16">
-        <v>79246</v>
+        <v>273</v>
+      </c>
+      <c r="C16" s="12">
+        <v>17241</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>263</v>
-      </c>
-      <c r="C17">
-        <v>6552</v>
+        <v>254</v>
+      </c>
+      <c r="C17" s="12">
+        <v>16070</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18">
-        <v>36687</v>
+        <v>276</v>
+      </c>
+      <c r="C18" s="12">
+        <v>15224</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C19">
-        <v>21113</v>
+        <v>253</v>
+      </c>
+      <c r="C19" s="12">
+        <v>13254</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>266</v>
-      </c>
-      <c r="C20">
-        <v>2768</v>
+        <v>274</v>
+      </c>
+      <c r="C20" s="12">
+        <v>12999</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>267</v>
-      </c>
-      <c r="C21">
-        <v>163135</v>
+        <v>270</v>
+      </c>
+      <c r="C21" s="12">
+        <v>10972</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15">
@@ -10184,151 +10587,151 @@
       <c r="B22" t="s">
         <v>268</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="12">
         <v>10274</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>269</v>
-      </c>
-      <c r="C23">
-        <v>52007</v>
+        <v>249</v>
+      </c>
+      <c r="C23" s="12">
+        <v>9741</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>270</v>
-      </c>
-      <c r="C24">
-        <v>10972</v>
+        <v>252</v>
+      </c>
+      <c r="C24" s="12">
+        <v>9632</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>271</v>
-      </c>
-      <c r="C25">
-        <v>163654</v>
+        <v>255</v>
+      </c>
+      <c r="C25" s="12">
+        <v>9515</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>272</v>
-      </c>
-      <c r="C26">
-        <v>3310</v>
+        <v>14</v>
+      </c>
+      <c r="C26" s="12">
+        <v>7526</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>251</v>
-      </c>
-      <c r="C27">
-        <v>630331</v>
+        <v>263</v>
+      </c>
+      <c r="C27" s="12">
+        <v>6552</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>271</v>
-      </c>
-      <c r="C28">
-        <v>163654</v>
+        <v>256</v>
+      </c>
+      <c r="C28" s="12">
+        <v>6366</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29">
-        <v>377</v>
+        <v>29</v>
+      </c>
+      <c r="C29" s="12">
+        <v>5085</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>5085</v>
+        <v>272</v>
+      </c>
+      <c r="C30" s="12">
+        <v>3310</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>273</v>
-      </c>
-      <c r="C31">
-        <v>17241</v>
+        <v>266</v>
+      </c>
+      <c r="C31" s="12">
+        <v>2768</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>274</v>
-      </c>
-      <c r="C32">
-        <v>12999</v>
+        <v>261</v>
+      </c>
+      <c r="C32" s="12">
+        <v>2736</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>275</v>
-      </c>
-      <c r="C33">
-        <v>1917</v>
+        <v>260</v>
+      </c>
+      <c r="C33" s="12">
+        <v>2071</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>276</v>
-      </c>
-      <c r="C34">
-        <v>15224</v>
+        <v>275</v>
+      </c>
+      <c r="C34" s="12">
+        <v>1917</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>251</v>
-      </c>
-      <c r="C35">
-        <v>630331</v>
+        <v>259</v>
+      </c>
+      <c r="C35" s="12">
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15">
@@ -10338,19 +10741,19 @@
       <c r="B36" t="s">
         <v>277</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="12">
         <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>278</v>
-      </c>
-      <c r="C37">
-        <v>33211</v>
+        <v>33</v>
+      </c>
+      <c r="C37" s="12">
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15">
@@ -10363,16 +10766,21 @@
       <c r="A40" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{B3469E7E-2A0C-7F43-B53A-40113C965794}">
+    <sortState ref="A2:C37">
+      <sortCondition descending="1" ref="C1:C37"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -10910,375 +11318,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
-  <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" t="s">
-        <v>51</v>
-      </c>
-      <c r="J23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" t="s">
-        <v>51</v>
-      </c>
-      <c r="J25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" t="s">
-        <v>51</v>
-      </c>
-      <c r="H30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" t="s">
-        <v>51</v>
-      </c>
-      <c r="H35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" t="s">
-        <v>51</v>
-      </c>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/obtn-by-county.xlsx
+++ b/data/obtn-by-county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidkeyes/Google Drive/Work/TFFF/OBTN/obtn-2019/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CA378D-CCC6-9F44-9D11-A18E90A90B5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDBA70A-6A49-0943-B77C-C87241DE2E88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37320" yWindow="760" windowWidth="27980" windowHeight="17540" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attribute List" sheetId="15" r:id="rId1"/>
@@ -955,7 +955,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1037,7 +1037,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3559,8 +3559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AK40"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AK4" sqref="AK4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -10339,7 +10339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26:C37"/>
     </sheetView>
   </sheetViews>
